--- a/db_init/Wood_Panel_Pricing.xlsx
+++ b/db_init/Wood_Panel_Pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KenCook\Dev\SNaP-Blender-2.93\2.93\scripts\addons\snap\db_init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82571818-054E-4B1E-A39E-31D5A75B3015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBC407-A7B4-464D-9E0C-B62CFC5ADA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EBF687A-48D7-4DE6-AC68-3709F84B39A1}"/>
+    <workbookView xWindow="1500" yWindow="900" windowWidth="21540" windowHeight="10668" xr2:uid="{7EBF687A-48D7-4DE6-AC68-3709F84B39A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Florence</t>
   </si>
   <si>
-    <t>Carrera</t>
-  </si>
-  <si>
     <t>Pisa</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Molino Vecchio</t>
+  </si>
+  <si>
+    <t>Carrara</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F48ACDA-96F4-40E1-8E0F-98D2D5B4C1D9}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -624,19 +624,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -644,19 +644,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -664,19 +664,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -684,19 +684,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -707,16 +707,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -727,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -747,16 +747,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -767,16 +767,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -787,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -804,13 +804,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -835,16 +835,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -903,16 +903,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -920,19 +920,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -940,19 +940,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -960,19 +960,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1000,16 +1000,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1034,19 +1034,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1054,19 +1054,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1074,19 +1074,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1094,19 +1094,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>1</v>
